--- a/output.xlsx
+++ b/output.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Text103</t>
+          <t>Total_invoice</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -45929,12 +45929,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Text85</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>نص93</t>
+          <t>paymentMethod</t>
         </is>
       </c>
     </row>
